--- a/mapping/mml_department_mapping.xlsx
+++ b/mapping/mml_department_mapping.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t>MML</t>
     <phoneticPr fontId="1"/>
@@ -119,10 +119,6 @@
   </si>
   <si>
     <t>Contact person</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mmlDp:Departiment</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -533,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -587,7 +583,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -600,7 +596,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
@@ -618,7 +614,7 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>10</v>
@@ -637,7 +633,7 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>10</v>

--- a/mapping/mml_department_mapping.xlsx
+++ b/mapping/mml_department_mapping.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
   <si>
     <t>MML</t>
     <phoneticPr fontId="1"/>
@@ -26,10 +26,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>openEHR-EHR-CLUSTER.organization-mml</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Elements</t>
   </si>
   <si>
@@ -58,10 +54,6 @@
     <t>+</t>
   </si>
   <si>
-    <t>Name of organization</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>#REQUIRED</t>
   </si>
   <si>
@@ -114,10 +106,6 @@
     <t>MML0001</t>
   </si>
   <si>
-    <t>Identifier chedi digit schema</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Contact person</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -131,6 +119,43 @@
   </si>
   <si>
     <t>mmlDp:tableId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>openEHR-EHR-CLUSTER.organisation-mml</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Name of organisation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Identifier check digit schema</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＊名前が複数あるときはother names以下に対応する数だけ繰り返す</t>
+    <rPh sb="1" eb="3">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>カエ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -155,12 +180,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -207,7 +238,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -224,6 +255,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -527,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -551,28 +585,28 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="J3">
         <v>2.5</v>
@@ -593,142 +627,147 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="6"/>
       <c r="H5" s="4" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="C6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F7" s="1"/>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F8" s="1"/>
       <c r="H8" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F10" s="1"/>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F11" s="1"/>
       <c r="H11" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="H12" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H15" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C17" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
